--- a/AutoBM/Table/Example.xlsx
+++ b/AutoBM/Table/Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora.kim\Desktop\AutoBM\AutoBM\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E784F4-391C-460D-89BD-0A2B421687CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75046E88-5241-4363-98C2-02E05E164B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29745" yWindow="900" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>가나다라</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,22 @@
   </si>
   <si>
     <t>가나 () 나나나다 ()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가나다 가 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가나다 가2 (마마)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가나다 가2 (asd)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdasd 2(가다다)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -425,6 +441,22 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AutoBM/Table/Example.xlsx
+++ b/AutoBM/Table/Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora.kim\Desktop\AutoBM\AutoBM\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75046E88-5241-4363-98C2-02E05E164B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C7242E-AE90-4797-891E-EDFA9E734BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29745" yWindow="900" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30435" yWindow="1590" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>가나다라</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,115 @@
   </si>
   <si>
     <t>asdasd 2(가다다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>루아의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전용무기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>각성석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>패키지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미사용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +203,33 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -103,7 +239,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -111,12 +247,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -397,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -457,6 +611,12 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AutoBM/Table/Example.xlsx
+++ b/AutoBM/Table/Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora.kim\Desktop\AutoBM\AutoBM\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C7242E-AE90-4797-891E-EDFA9E734BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB63FD5-229E-42E0-8A0E-151A0DAB5488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30435" yWindow="1590" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={884A33D4-F0C6-437E-8E16-B63105795249}</author>
+  </authors>
+  <commentList>
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{884A33D4-F0C6-437E-8E16-B63105795249}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    아이템 코드</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>가나다라</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,13 +200,17 @@
       <t>)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,16 +252,42 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -262,20 +310,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -286,6 +363,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -549,12 +630,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A12" dT="2020-09-28T12:14:04.74" personId="{00000000-0000-0000-0000-000000000000}" id="{884A33D4-F0C6-437E-8E16-B63105795249}">
+    <text>아이템 코드</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -617,9 +706,18 @@
         <v>12</v>
       </c>
     </row>
+    <row r="12" spans="1:2" ht="24.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/AutoBM/Table/Example.xlsx
+++ b/AutoBM/Table/Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora.kim\Desktop\AutoBM\AutoBM\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB63FD5-229E-42E0-8A0E-151A0DAB5488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347BB3DB-A89D-48A1-8318-5B5296E0FDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30435" yWindow="1590" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,28 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={6AB28524-9876-47AE-A7DE-E878C76BE104}</author>
+    <author>tc={391FB094-A623-400E-838A-13C6ADB6BF0E}</author>
     <author>tc={884A33D4-F0C6-437E-8E16-B63105795249}</author>
   </authors>
   <commentList>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{884A33D4-F0C6-437E-8E16-B63105795249}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6AB28524-9876-47AE-A7DE-E878C76BE104}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    아이템 코드</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{391FB094-A623-400E-838A-13C6ADB6BF0E}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    아이템 코드</t>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -43,15 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>가나다라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가나다라(분류)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>가나다라 (분류)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,7 +351,27 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -632,6 +662,12 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2020-09-28T12:14:04.74" personId="{00000000-0000-0000-0000-000000000000}" id="{6AB28524-9876-47AE-A7DE-E878C76BE104}">
+    <text>아이템 코드</text>
+  </threadedComment>
+  <threadedComment ref="B1" dT="2020-09-28T12:14:04.74" personId="{00000000-0000-0000-0000-000000000000}" id="{391FB094-A623-400E-838A-13C6ADB6BF0E}">
+    <text>아이템 코드</text>
+  </threadedComment>
   <threadedComment ref="A12" dT="2020-09-28T12:14:04.74" personId="{00000000-0000-0000-0000-000000000000}" id="{884A33D4-F0C6-437E-8E16-B63105795249}">
     <text>아이템 코드</text>
   </threadedComment>
@@ -643,7 +679,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -652,68 +688,74 @@
     <col min="2" max="2" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+    <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AutoBM/Table/Example.xlsx
+++ b/AutoBM/Table/Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora.kim\Desktop\AutoBM\AutoBM\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347BB3DB-A89D-48A1-8318-5B5296E0FDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799E07BA-6E0D-4DE8-B709-65D294FFB5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30435" yWindow="1590" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
     <author>tc={884A33D4-F0C6-437E-8E16-B63105795249}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6AB28524-9876-47AE-A7DE-E878C76BE104}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -40,7 +40,7 @@
     아이템 코드</t>
       </text>
     </comment>
-    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{391FB094-A623-400E-838A-13C6ADB6BF0E}">
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -48,7 +48,7 @@
     아이템 코드</t>
       </text>
     </comment>
-    <comment ref="A12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>가나다라 (분류)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,13 +214,22 @@
   <si>
     <t>Code</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>마도 공학 장비 패키지(미사용)</t>
+  </si>
+  <si>
+    <t>루아의 전용무기 각성석 패키지1(미사용)</t>
+  </si>
+  <si>
+    <t>루아의 전용무기 각성석 패키지2 (미사용)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,12 +284,6 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -393,10 +396,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -676,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -688,7 +687,7 @@
     <col min="2" max="2" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -696,7 +695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -704,7 +703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -712,7 +711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -720,7 +719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -728,7 +727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -736,13 +735,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="24.75" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>

--- a/AutoBM/Table/Example.xlsx
+++ b/AutoBM/Table/Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora.kim\Desktop\AutoBM\AutoBM\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799E07BA-6E0D-4DE8-B709-65D294FFB5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213D6243-7328-4F76-ADB2-EAB144714466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30435" yWindow="1590" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>가나다라 (분류)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,14 @@
   </si>
   <si>
     <t>루아의 전용무기 각성석 패키지2 (미사용)</t>
+  </si>
+  <si>
+    <t>한글</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -678,7 +686,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -692,7 +700,10 @@
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">

--- a/AutoBM/Table/Example.xlsx
+++ b/AutoBM/Table/Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora.kim\Desktop\AutoBM\AutoBM\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213D6243-7328-4F76-ADB2-EAB144714466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB80323-66AE-4AE0-BAC1-2662D6274F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30435" yWindow="1590" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30780" yWindow="1935" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>가나다라 (분류)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,57 @@
   </si>
   <si>
     <t>한글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소울웨폰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>패키지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미사용)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -237,7 +288,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +341,13 @@
     <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
@@ -686,7 +744,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K3" sqref="J3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -746,12 +804,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>

--- a/AutoBM/Table/Example.xlsx
+++ b/AutoBM/Table/Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora.kim\Desktop\AutoBM\AutoBM\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB80323-66AE-4AE0-BAC1-2662D6274F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7399C756-9A9D-4450-A8AB-1BA877375C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30780" yWindow="1935" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30435" yWindow="1590" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,47 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
-  <si>
-    <t>가나다라 (분류)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가나다라3 (분류)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가나다라 나나3 (분류)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가 나나나나 다다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가나다()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가나 () 나나나다 ()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가나다 가 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가나다 가2 (마마)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가나다 가2 (asd)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asdasd 2(가다다)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <r>
       <rPr>
@@ -215,80 +175,12 @@
     <t>Code</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
-  <si>
-    <t>마도 공학 장비 패키지(미사용)</t>
-  </si>
-  <si>
-    <t>루아의 전용무기 각성석 패키지1(미사용)</t>
-  </si>
-  <si>
-    <t>루아의 전용무기 각성석 패키지2 (미사용)</t>
-  </si>
-  <si>
-    <t>한글</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>한글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소울웨폰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>패키지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2 (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미사용)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,13 +233,6 @@
     <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="돋움"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
@@ -741,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="J3:K3"/>
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -753,82 +638,23 @@
     <col min="2" max="2" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="7" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="24.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/AutoBM/Table/Example.xlsx
+++ b/AutoBM/Table/Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora.kim\Desktop\AutoBM\AutoBM\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7399C756-9A9D-4450-A8AB-1BA877375C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3CA1B1-AC16-4A93-87D2-F462EE6C83EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30435" yWindow="1590" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,27 +28,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={6AB28524-9876-47AE-A7DE-E878C76BE104}</author>
-    <author>tc={391FB094-A623-400E-838A-13C6ADB6BF0E}</author>
-    <author>tc={884A33D4-F0C6-437E-8E16-B63105795249}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <t>[스레드 댓글]
-사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
-댓글:
-    아이템 코드</t>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <t>[스레드 댓글]
-사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
-댓글:
-    아이템 코드</t>
-      </text>
-    </comment>
-    <comment ref="A12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -305,27 +287,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -615,21 +577,15 @@
   <threadedComment ref="A1" dT="2020-09-28T12:14:04.74" personId="{00000000-0000-0000-0000-000000000000}" id="{6AB28524-9876-47AE-A7DE-E878C76BE104}">
     <text>아이템 코드</text>
   </threadedComment>
-  <threadedComment ref="B1" dT="2020-09-28T12:14:04.74" personId="{00000000-0000-0000-0000-000000000000}" id="{391FB094-A623-400E-838A-13C6ADB6BF0E}">
-    <text>아이템 코드</text>
-  </threadedComment>
-  <threadedComment ref="A12" dT="2020-09-28T12:14:04.74" personId="{00000000-0000-0000-0000-000000000000}" id="{884A33D4-F0C6-437E-8E16-B63105795249}">
-    <text>아이템 코드</text>
-  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -638,34 +594,21 @@
     <col min="2" max="2" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="2" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:1" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/AutoBM/Table/Example.xlsx
+++ b/AutoBM/Table/Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora.kim\Desktop\AutoBM\AutoBM\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3CA1B1-AC16-4A93-87D2-F462EE6C83EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74451916-F447-47B8-BD1F-E743567518AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30435" yWindow="1590" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <r>
       <rPr>
@@ -156,6 +156,9 @@
   <si>
     <t>Code</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>소울웨폰 패키지2 (미사용)</t>
   </si>
 </sst>
 </file>
@@ -582,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -605,6 +608,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1">

--- a/AutoBM/Table/Example.xlsx
+++ b/AutoBM/Table/Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora.kim\Desktop\AutoBM\AutoBM\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74451916-F447-47B8-BD1F-E743567518AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3BB733-6AA8-4A65-A061-9D0EC56B2A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="26025" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,119 +43,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>루아의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전용무기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>각성석</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>패키지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미사용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Code</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>소울웨폰 패키지2 (미사용)</t>
@@ -165,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,33 +70,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="9"/>
@@ -236,27 +100,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -278,12 +127,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -585,32 +431,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="51.375" customWidth="1"/>
     <col min="2" max="2" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="24.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:1" ht="26.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
